--- a/output/tables/table_III_return_predictability.xlsx
+++ b/output/tables/table_III_return_predictability.xlsx
@@ -477,19 +477,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001247831182134299</v>
+        <v>0.001021409261777601</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005194836952810229</v>
+        <v>0.001329097512456833</v>
       </c>
       <c r="D2" t="n">
-        <v>2.402060340814479</v>
+        <v>0.7684983623884212</v>
       </c>
       <c r="E2" t="n">
-        <v>771</v>
+        <v>153</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01653891185103551</v>
+        <v>0.4433835265809734</v>
       </c>
     </row>
     <row r="3">
@@ -499,19 +499,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0005112393964247844</v>
+        <v>0.0003577981894051034</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005429873322539378</v>
+        <v>0.0001995661937595646</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9415309825049365</v>
+        <v>1.792879759164898</v>
       </c>
       <c r="E3" t="n">
-        <v>771</v>
+        <v>153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3467281066724341</v>
+        <v>0.07498072240951026</v>
       </c>
     </row>
   </sheetData>
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001582371167669768</v>
+        <v>0.00136750056190373</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004960354047577476</v>
+        <v>0.001558887990892368</v>
       </c>
       <c r="D2" t="n">
-        <v>3.190036744337962</v>
+        <v>0.8772282356995514</v>
       </c>
       <c r="E2" t="n">
-        <v>762</v>
+        <v>128</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00148087438011002</v>
+        <v>0.3820190932719181</v>
       </c>
     </row>
     <row r="3">
@@ -594,19 +594,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0002069288016003833</v>
+        <v>0.0004562866158777032</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006716175315530789</v>
+        <v>0.000278413708253446</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3081051221546759</v>
+        <v>1.638879848050929</v>
       </c>
       <c r="E3" t="n">
-        <v>762</v>
+        <v>128</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7580866558651447</v>
+        <v>0.1037132994876999</v>
       </c>
     </row>
     <row r="4">
@@ -616,19 +616,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05122265788049625</v>
+        <v>0.02515492855879896</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02313359916932885</v>
+        <v>0.0720664177974517</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.214210486901175</v>
+        <v>0.349052017952368</v>
       </c>
       <c r="E4" t="n">
-        <v>762</v>
+        <v>128</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0271099583193517</v>
+        <v>0.7276283069589755</v>
       </c>
     </row>
     <row r="5">
@@ -638,19 +638,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001526899353727355</v>
+        <v>-0.004165561954139163</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001488518139515518</v>
+        <v>0.003394682794704111</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.025784848160688</v>
+        <v>-1.227084298019734</v>
       </c>
       <c r="E5" t="n">
-        <v>762</v>
+        <v>128</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3053189542078369</v>
+        <v>0.2220607690673455</v>
       </c>
     </row>
     <row r="6">
@@ -660,19 +660,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.01047165949329638</v>
+        <v>-0.01854815780365857</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01049880685647877</v>
+        <v>0.03643874380802028</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.9974142430131824</v>
+        <v>-0.5090229756925941</v>
       </c>
       <c r="E6" t="n">
-        <v>762</v>
+        <v>128</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3188805175867917</v>
+        <v>0.6116193511940335</v>
       </c>
     </row>
   </sheetData>
@@ -733,19 +733,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001287898980128139</v>
+        <v>0.0009857780021970399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000517860555321761</v>
+        <v>0.001312585960625891</v>
       </c>
       <c r="D2" t="n">
-        <v>2.486960952891908</v>
+        <v>0.7510197669088152</v>
       </c>
       <c r="E2" t="n">
-        <v>771</v>
+        <v>153</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01309470140177105</v>
+        <v>0.4538018923023839</v>
       </c>
     </row>
     <row r="3">
@@ -755,19 +755,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0006204816870187905</v>
+        <v>-0.0003392186381108248</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006661974722743519</v>
+        <v>0.0002030635624938836</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9313780265489586</v>
+        <v>-1.670504712636677</v>
       </c>
       <c r="E3" t="n">
-        <v>771</v>
+        <v>153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3519499747135499</v>
+        <v>0.09687741247667736</v>
       </c>
     </row>
   </sheetData>
@@ -828,19 +828,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001639253215899231</v>
+        <v>0.001278787414207997</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004931454422662819</v>
+        <v>0.001535620350343818</v>
       </c>
       <c r="D2" t="n">
-        <v>3.324076581476525</v>
+        <v>0.8327497183282851</v>
       </c>
       <c r="E2" t="n">
-        <v>762</v>
+        <v>128</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0009295728514877588</v>
+        <v>0.4065491806427768</v>
       </c>
     </row>
     <row r="3">
@@ -850,19 +850,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0002373371120792851</v>
+        <v>-0.0003587096667567945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007445394355059613</v>
+        <v>0.0002922994715452766</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3187703709985485</v>
+        <v>-1.227199162764244</v>
       </c>
       <c r="E3" t="n">
-        <v>762</v>
+        <v>128</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7499881178373862</v>
+        <v>0.2220177522040436</v>
       </c>
     </row>
     <row r="4">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04843359461138744</v>
+        <v>0.02347315293078273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02308138153766529</v>
+        <v>0.07245350381077069</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.098383692169864</v>
+        <v>0.3239754007216597</v>
       </c>
       <c r="E4" t="n">
-        <v>762</v>
+        <v>128</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03620034699194274</v>
+        <v>0.746489594042639</v>
       </c>
     </row>
     <row r="5">
@@ -894,19 +894,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001555992847153024</v>
+        <v>-0.00365249216688758</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001469809347685587</v>
+        <v>0.003313022824455728</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.058635835731446</v>
+        <v>-1.102465138460862</v>
       </c>
       <c r="E5" t="n">
-        <v>762</v>
+        <v>128</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2901015649384755</v>
+        <v>0.2723443229589753</v>
       </c>
     </row>
     <row r="6">
@@ -916,19 +916,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.01170643181551884</v>
+        <v>-0.02065243647787309</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01050135257539342</v>
+        <v>0.03628004043369595</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.114754669122257</v>
+        <v>-0.5692506466638788</v>
       </c>
       <c r="E6" t="n">
-        <v>762</v>
+        <v>128</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2653074886147153</v>
+        <v>0.5701914766100749</v>
       </c>
     </row>
   </sheetData>
@@ -989,19 +989,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001783734471085251</v>
+        <v>0.0008745742239192069</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004453709718287317</v>
+        <v>0.001564552509791027</v>
       </c>
       <c r="D2" t="n">
-        <v>4.00505327898018</v>
+        <v>0.5589932063296627</v>
       </c>
       <c r="E2" t="n">
-        <v>762</v>
+        <v>127</v>
       </c>
       <c r="F2" t="n">
-        <v>6.808521060586159e-05</v>
+        <v>0.5771585269375135</v>
       </c>
     </row>
     <row r="3">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.258546500025453e-05</v>
+        <v>0.0003814694699642272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006798525831842799</v>
+        <v>0.0003206739323209783</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.06263926335440777</v>
+        <v>1.189586778080844</v>
       </c>
       <c r="E3" t="n">
-        <v>762</v>
+        <v>127</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9500702113828552</v>
+        <v>0.2364456402688748</v>
       </c>
     </row>
     <row r="4">
@@ -1033,19 +1033,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07918869158902278</v>
+        <v>-0.1348854468659074</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02414771393945645</v>
+        <v>0.06874841533060062</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.279345274155806</v>
+        <v>-1.962015360168869</v>
       </c>
       <c r="E4" t="n">
-        <v>762</v>
+        <v>127</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001087799207468487</v>
+        <v>0.05196511587644315</v>
       </c>
     </row>
     <row r="5">
@@ -1055,19 +1055,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002359901992427101</v>
+        <v>-0.001478292107600891</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001478019671159004</v>
+        <v>0.003350885524773794</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.596664806616924</v>
+        <v>-0.4411646105698241</v>
       </c>
       <c r="E5" t="n">
-        <v>762</v>
+        <v>127</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1107555870740227</v>
+        <v>0.6598499133555067</v>
       </c>
     </row>
     <row r="6">
@@ -1077,19 +1077,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01725594323016219</v>
+        <v>0.04008231453565547</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01088358563716523</v>
+        <v>0.03410292663162661</v>
       </c>
       <c r="D6" t="n">
-        <v>1.585501672466898</v>
+        <v>1.175333570887246</v>
       </c>
       <c r="E6" t="n">
-        <v>762</v>
+        <v>127</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1132678202220994</v>
+        <v>0.2420774822817708</v>
       </c>
     </row>
   </sheetData>
@@ -1150,19 +1150,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001702429324291166</v>
+        <v>0.0006044817855793463</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004456011429641704</v>
+        <v>0.001552741476365589</v>
       </c>
       <c r="D2" t="n">
-        <v>3.820522795265932</v>
+        <v>0.3892996965561977</v>
       </c>
       <c r="E2" t="n">
-        <v>762</v>
+        <v>127</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001440296673236308</v>
+        <v>0.6977116295825945</v>
       </c>
     </row>
     <row r="3">
@@ -1172,19 +1172,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0005082809606229357</v>
+        <v>-0.0004697353334373075</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008569978604451862</v>
+        <v>0.0003214227344236432</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5930947836426315</v>
+        <v>-1.461425353995603</v>
       </c>
       <c r="E3" t="n">
-        <v>762</v>
+        <v>127</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5532939345883383</v>
+        <v>0.146388174704247</v>
       </c>
     </row>
     <row r="4">
@@ -1194,19 +1194,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07834639101224762</v>
+        <v>-0.1366987884153907</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02415566579401647</v>
+        <v>0.06791457455158625</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.243396049619736</v>
+        <v>-2.012804899654605</v>
       </c>
       <c r="E4" t="n">
-        <v>762</v>
+        <v>127</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001232673203452661</v>
+        <v>0.04626656912270244</v>
       </c>
     </row>
     <row r="5">
@@ -1216,19 +1216,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002597730410788205</v>
+        <v>-0.001330545913148971</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001464592797849064</v>
+        <v>0.003350131207432538</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.773687822719935</v>
+        <v>-0.397162329104319</v>
       </c>
       <c r="E5" t="n">
-        <v>762</v>
+        <v>127</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07651464581752609</v>
+        <v>0.691919716265107</v>
       </c>
     </row>
     <row r="6">
@@ -1238,19 +1238,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0173939827642367</v>
+        <v>0.04483786802389659</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01094005317589972</v>
+        <v>0.03379161481257681</v>
       </c>
       <c r="D6" t="n">
-        <v>1.589935851733756</v>
+        <v>1.32689332168904</v>
       </c>
       <c r="E6" t="n">
-        <v>762</v>
+        <v>127</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1122645870482566</v>
+        <v>0.1869435988844375</v>
       </c>
     </row>
   </sheetData>
